--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2991216.015516294</v>
+        <v>3106650.106257746</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>26.60338682606143</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.11693918766126</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>148.7243530449389</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>105.1396914264609</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>146.3996323335984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>188.8837547751738</v>
+        <v>17.22223187928857</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.09313313066309</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760027</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>188.8837547751738</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>188.8837547751738</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167099</v>
+        <v>44.33060630074783</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>133.8303650425828</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>188.8837547751738</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>162.8791942899652</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.8837547751738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>216.1480668197314</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.45534151883495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>195.3635206396358</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.8784933546206</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1212,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>55.37364639904779</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.09929350958866</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>181.9878824748399</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.91369288257662</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>80.07147829118256</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>169.3382687475389</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>55.49215756129669</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>73.578497753872</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>245.6198119699298</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>285.3734668980744</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>109.1623230749906</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>78.14939830226255</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>36.86080948088116</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3001,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>150.3341561773496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>102.6244980900711</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.6830416206829</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
         <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701348</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.48499328953133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>108.027573600588</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>166.684983322743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D43" t="n">
-        <v>135.3135037226529</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.408064079030915</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.59746731481</v>
+        <v>723.230240760166</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>533.8104557436815</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>533.8104557436815</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>344.3906707271969</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426225</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>603.4370373477793</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T2" t="n">
-        <v>603.4370373477793</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U2" t="n">
-        <v>414.0172523312947</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312947</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312947</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X2" t="n">
-        <v>224.59746731481</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.59746731481</v>
+        <v>750.1023486652786</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>221.0361593949979</v>
+        <v>191.896529081881</v>
       </c>
       <c r="C3" t="n">
-        <v>221.0361593949979</v>
+        <v>191.896529081881</v>
       </c>
       <c r="D3" t="n">
-        <v>221.0361593949979</v>
+        <v>191.896529081881</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0361593949979</v>
+        <v>191.896529081881</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>191.896529081881</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>191.896529081881</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>90.03616812153788</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652794</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="S3" t="n">
-        <v>599.8757294279674</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="T3" t="n">
-        <v>599.8757294279674</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="U3" t="n">
-        <v>410.4559444114826</v>
+        <v>487.5180226099422</v>
       </c>
       <c r="V3" t="n">
-        <v>221.0361593949979</v>
+        <v>487.5180226099422</v>
       </c>
       <c r="W3" t="n">
-        <v>221.0361593949979</v>
+        <v>298.0982375934577</v>
       </c>
       <c r="X3" t="n">
-        <v>221.0361593949979</v>
+        <v>191.896529081881</v>
       </c>
       <c r="Y3" t="n">
-        <v>221.0361593949979</v>
+        <v>191.896529081881</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.951676120546</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="C5" t="n">
-        <v>226.0732596219617</v>
+        <v>1358.940298897477</v>
       </c>
       <c r="D5" t="n">
-        <v>35.28158813188716</v>
+        <v>1341.544105080013</v>
       </c>
       <c r="E5" t="n">
-        <v>35.28158813188716</v>
+        <v>955.7558524817691</v>
       </c>
       <c r="F5" t="n">
-        <v>28.33608738268369</v>
+        <v>544.7699476921615</v>
       </c>
       <c r="G5" t="n">
-        <v>15.1107003820139</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>15.1107003820139</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590612</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>81.9076024754383</v>
+        <v>277.9807166746986</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186848</v>
+        <v>521.2049416030777</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398485</v>
+        <v>823.5081935709198</v>
       </c>
       <c r="N5" t="n">
-        <v>512.972276168194</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>653.745592787583</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>739.3913607574897</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006951</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>755.5350191006951</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="S5" t="n">
-        <v>755.5350191006951</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="T5" t="n">
-        <v>755.5350191006951</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="U5" t="n">
-        <v>755.5350191006951</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="V5" t="n">
-        <v>755.5350191006951</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="W5" t="n">
-        <v>564.7433476106205</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="X5" t="n">
-        <v>373.951676120546</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="Y5" t="n">
-        <v>373.951676120546</v>
+        <v>1727.902815837888</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.0451100432652</v>
+        <v>898.2443217423946</v>
       </c>
       <c r="C6" t="n">
-        <v>164.0451100432652</v>
+        <v>723.7912924612676</v>
       </c>
       <c r="D6" t="n">
-        <v>15.1107003820139</v>
+        <v>574.8568828000164</v>
       </c>
       <c r="E6" t="n">
-        <v>15.1107003820139</v>
+        <v>415.6194277945608</v>
       </c>
       <c r="F6" t="n">
-        <v>15.1107003820139</v>
+        <v>269.0848698214457</v>
       </c>
       <c r="G6" t="n">
-        <v>15.1107003820139</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="H6" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I6" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>15.1107003820139</v>
+        <v>61.6678846478756</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236341008</v>
+        <v>186.1577239806069</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208111</v>
+        <v>399.8722171189989</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914227</v>
+        <v>668.6238185223517</v>
       </c>
       <c r="N6" t="n">
-        <v>514.8296233548679</v>
+        <v>958.8971200352503</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747643</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165535</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994282</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="R6" t="n">
-        <v>680.8106399351141</v>
+        <v>1401.100270703777</v>
       </c>
       <c r="S6" t="n">
-        <v>680.8106399351141</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>680.8106399351141</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="U6" t="n">
-        <v>545.6284530234143</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="V6" t="n">
-        <v>354.8367815333397</v>
+        <v>1062.768760419127</v>
       </c>
       <c r="W6" t="n">
-        <v>354.8367815333397</v>
+        <v>898.2443217423946</v>
       </c>
       <c r="X6" t="n">
-        <v>354.8367815333397</v>
+        <v>898.2443217423946</v>
       </c>
       <c r="Y6" t="n">
-        <v>164.0451100432652</v>
+        <v>898.2443217423946</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="C7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="D7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="E7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="F7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>15.1107003820139</v>
+        <v>64.24066662574718</v>
       </c>
       <c r="L7" t="n">
-        <v>27.45863662426373</v>
+        <v>132.1299861584121</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709748063</v>
+        <v>206.968037834798</v>
       </c>
       <c r="N7" t="n">
-        <v>67.48402208628313</v>
+        <v>287.8841338195377</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484548355</v>
+        <v>342.310156193473</v>
       </c>
       <c r="P7" t="n">
-        <v>69.10599484548355</v>
+        <v>369.819049585802</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.10599484548355</v>
+        <v>369.819049585802</v>
       </c>
       <c r="R7" t="n">
-        <v>69.10599484548355</v>
+        <v>252.8894369427491</v>
       </c>
       <c r="S7" t="n">
-        <v>69.10599484548355</v>
+        <v>252.8894369427491</v>
       </c>
       <c r="T7" t="n">
-        <v>69.10599484548355</v>
+        <v>252.8894369427491</v>
       </c>
       <c r="U7" t="n">
-        <v>69.10599484548355</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="V7" t="n">
-        <v>69.10599484548355</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="W7" t="n">
-        <v>69.10599484548355</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="X7" t="n">
-        <v>69.10599484548355</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.1107003820139</v>
+        <v>34.55805631675776</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219473</v>
+        <v>852.6996934255721</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279062</v>
+        <v>852.6996934255721</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672311</v>
+        <v>852.6996934255721</v>
       </c>
       <c r="E8" t="n">
-        <v>1131.904259672311</v>
+        <v>852.6996934255721</v>
       </c>
       <c r="F8" t="n">
-        <v>720.9183548827039</v>
+        <v>441.7137886359646</v>
       </c>
       <c r="G8" t="n">
-        <v>305.8459047277003</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>1629.438865465506</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259407</v>
+        <v>1629.438865465506</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283595</v>
+        <v>1239.299533489694</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1539.52797744664</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1539.52797744664</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1304.375869214897</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1050.138512486696</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>842.287012281163</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>786.3540361205087</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218339</v>
+        <v>93.12031052680811</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877106</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877106</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877106</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="W10" t="n">
-        <v>515.2942464737308</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="X10" t="n">
-        <v>287.3046955757135</v>
+        <v>93.12031052680811</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218339</v>
+        <v>93.12031052680811</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5029,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>815.9830526793647</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>665.866413267029</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>517.9533196846359</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>371.0633721867255</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,46 +5269,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5343,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>545.3854261579752</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>398.4954786600648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5530,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590559</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118214</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289435</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.252935505193</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M18" t="n">
-        <v>3212.252935505193</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N18" t="n">
-        <v>3839.8508990598</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575532</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.9318370706</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445482</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,19 +5770,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3266.742304572424</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>3097.806121644517</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.9326143059</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.857387650098</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.172899444211</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3897.172899444211</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X22" t="n">
-        <v>3669.183348546194</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y22" t="n">
-        <v>3448.390769402664</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711974</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1872.059887685832</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1617.375399479945</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.958229442984</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.968678544967</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.1760994014371</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669523</v>
+        <v>3110.333886317437</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
         <v>2337.686731866304</v>
@@ -6406,28 +6408,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U28" t="n">
-        <v>4366.952842784158</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V28" t="n">
-        <v>4112.268354578271</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W28" t="n">
-        <v>3822.85118454131</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X28" t="n">
-        <v>3594.861633643293</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499763</v>
+        <v>3189.272672481338</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>2644.045655650153</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>3241.424143276705</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>3869.022106831312</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4440.9326143059</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4186.248126100013</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3896.830956063052</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,10 +6688,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,7 +6733,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6743,7 +6745,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>2716.927329289434</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>2817.800993781637</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336244</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3046.798896214207</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>2877.8627132863</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>2877.8627132863</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>2729.949619703907</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>2583.059672205996</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.239940187977</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>3228.447361044447</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7013,31 @@
         <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K36" t="n">
-        <v>2510.268290553495</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L36" t="n">
-        <v>3005.593896769254</v>
+        <v>2680.685310603266</v>
       </c>
       <c r="M36" t="n">
-        <v>3602.972384395806</v>
+        <v>3278.063798229818</v>
       </c>
       <c r="N36" t="n">
-        <v>4230.570347950413</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O36" t="n">
-        <v>4230.570347950413</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445481</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
         <v>4690.833152398593</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499465</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192554</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3025.687952571559</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>3025.687952571559</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>2875.571313159223</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3763.887252650066</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3474.470082613106</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3246.480531715089</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3025.687952571559</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7391,67 +7393,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913447</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913447</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129206</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>3473.939263755758</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>3905.661761784425</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023712</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023712</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3160.164713532175</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3160.164713532175</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7676,19 +7678,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>4138.923422159307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1024.063349920562</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>855.1271669926552</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>705.0105275803195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>557.0974339979264</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>410.207486500016</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>243.0113872148959</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>101.299556057094</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7851,7 @@
         <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>1205.711814750802</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>112.6104454096922</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>85.45266000108629</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>117.1847295890521</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>230.6923168279475</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>75.03697526434036</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>40.90318636666117</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0.8110074911697893</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>142.9753202488374</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>101.6825818796747</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>249.323664908363</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>75.37549921168758</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>62.89964020219779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.346986892406</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>40.58789941762433</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>85.45266000108498</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D43" t="n">
-        <v>13.3019692955595</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>73.85777223953463</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26316,25 @@
         <v>718411.5486312484</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287555</v>
@@ -26344,16 +26346,16 @@
         <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287558</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218521581</v>
+        <v>270592.362025314</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385713</v>
+        <v>115410.0540231918</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>601443.207574265</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.266830185212064e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854458</v>
       </c>
       <c r="K3" t="n">
-        <v>349.5488811555256</v>
+        <v>62913.63765882006</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.4473694181</v>
+        <v>27875.25362197463</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.7270444447</v>
+        <v>206604.4229263459</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26445,19 +26447,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="M4" t="n">
         <v>14826.6960418674</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622591</v>
+        <v>76435.73471936827</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208467.7191353404</v>
+        <v>-208467.7191353401</v>
       </c>
       <c r="C6" t="n">
-        <v>381677.5429020555</v>
+        <v>164779.0289602195</v>
       </c>
       <c r="D6" t="n">
-        <v>-145285.8204727693</v>
+        <v>343599.4226632867</v>
       </c>
       <c r="E6" t="n">
-        <v>264891.5870556257</v>
+        <v>-11139.15871128399</v>
       </c>
       <c r="F6" t="n">
-        <v>590304.0488629811</v>
+        <v>590304.0488629806</v>
       </c>
       <c r="G6" t="n">
         <v>590304.0488629809</v>
       </c>
       <c r="H6" t="n">
+        <v>590304.0488629811</v>
+      </c>
+      <c r="I6" t="n">
         <v>590304.048862981</v>
-      </c>
-      <c r="I6" t="n">
-        <v>590304.0488629808</v>
       </c>
       <c r="J6" t="n">
         <v>541239.1041344365</v>
       </c>
       <c r="K6" t="n">
-        <v>589954.4999818256</v>
+        <v>527390.4112041611</v>
       </c>
       <c r="L6" t="n">
-        <v>427688.6014935628</v>
+        <v>562428.7952410062</v>
       </c>
       <c r="M6" t="n">
-        <v>505249.0209274691</v>
+        <v>433157.6683113831</v>
       </c>
       <c r="N6" t="n">
+        <v>590304.0488629809</v>
+      </c>
+      <c r="O6" t="n">
         <v>590304.0488629811</v>
       </c>
-      <c r="O6" t="n">
-        <v>590304.0488629814</v>
-      </c>
       <c r="P6" t="n">
-        <v>590304.0488629809</v>
+        <v>590304.0488629811</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26713,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906374012</v>
+        <v>758.8996292950625</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>188.8837547751738</v>
+        <v>431.9757039594721</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16914972449672</v>
+        <v>210.4296883821582</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099558969</v>
+        <v>94.81103524262164</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>514.2648358039894</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358167608853933</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271186</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608853959</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271186</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608853933</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271186</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>356.1304548374192</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>90.65887400239187</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.6436733987105</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.045891646010773</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377108</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310543</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>100.6332937770165</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.616033927503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390163</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>218.8732594374091</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.7992868455092</v>
+        <v>337.4608097413944</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8456912132937</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380505</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804507</v>
+        <v>23.94240680425887</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750904</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4233063711053</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1688845570787</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>160.3572139422392</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>180.8473459032953</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196704</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.81797564619245</v>
+        <v>43.32085084937508</v>
       </c>
       <c r="J6" t="n">
-        <v>15.1416299551548</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505417</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3994614844841</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>92.03323792179242</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>43.9168323742515</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>88.81578887095441</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.79894100213059</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6438173562989</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157532</v>
+        <v>30.24193919304038</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355203</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882005</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319827</v>
+        <v>36.91115760589142</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279247</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2649664951167</v>
+        <v>70.09631667158285</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.1293118332598</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>99.24424374768469</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.3624753627924</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27932,10 +27934,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27980,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>150.3090493782566</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.1475275890392</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>104.5351158617511</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29746,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,19 +29802,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29989,19 +29991,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471963</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>22.6291109024735</v>
+        <v>31.24454604429369</v>
       </c>
       <c r="I5" t="n">
-        <v>85.18577303235543</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265774</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212757</v>
+        <v>388.0799144520274</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025596</v>
+        <v>481.4474502511782</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749129</v>
+        <v>535.7030533968106</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2652343322939</v>
+        <v>544.3712888610703</v>
       </c>
       <c r="O5" t="n">
-        <v>372.2934807342007</v>
+        <v>514.0343715191495</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925491</v>
+        <v>438.7164434860969</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736468</v>
+        <v>329.457778263466</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160871</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>50.3513599111549</v>
+        <v>69.52130774898991</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193026023</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.176768350757757</v>
+        <v>0.244068222486854</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.18224257231441</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682602</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380755</v>
+        <v>56.20152915062492</v>
       </c>
       <c r="J6" t="n">
-        <v>111.6959967115119</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565774</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509863</v>
+        <v>354.4276051721894</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973836</v>
+        <v>413.600297965809</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161062</v>
+        <v>424.5470671468671</v>
       </c>
       <c r="O6" t="n">
-        <v>281.28558254535</v>
+        <v>388.3776244374458</v>
       </c>
       <c r="P6" t="n">
-        <v>225.7564785676526</v>
+        <v>311.7072835872494</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010465</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229296</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>21.95963725329615</v>
+        <v>30.32018801947724</v>
       </c>
       <c r="T6" t="n">
-        <v>4.765267210337467</v>
+        <v>6.579516597378888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963227</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264611</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989814</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>29.8066575709594</v>
+        <v>41.15475366734536</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782079</v>
+        <v>96.75348224635573</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269834</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>147.3573391521977</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124706</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>151.6733575852357</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742675</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8753846203276</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624758</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610796</v>
+        <v>61.53307486054717</v>
       </c>
       <c r="S7" t="n">
-        <v>17.2730842090475</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976696</v>
+        <v>5.847259438830807</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417066</v>
+        <v>0.0746458651765636</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>263.7590256391499</v>
+        <v>336.3457189021241</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>585.3368606136115</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>301.644515672456</v>
+        <v>461.1007071927443</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2529048371032</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,19 +33262,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>553.3925020622931</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>764.2478901092629</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33283,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>266.3926848685833</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>254.8897444730603</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N39" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067238</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N42" t="n">
-        <v>567.425043425422</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192553</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599891155</v>
+        <v>77.89141170198434</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629511</v>
+        <v>167.9900634070468</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325723</v>
+        <v>245.681035281191</v>
       </c>
       <c r="M5" t="n">
-        <v>157.6409626476401</v>
+        <v>305.3568201695379</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707357029</v>
+        <v>314.9582252644794</v>
       </c>
       <c r="O5" t="n">
-        <v>142.195269312514</v>
+        <v>283.9361600974628</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727955</v>
+        <v>207.4834477308274</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919736</v>
+        <v>107.1520883890165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092711</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221837</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>118.1426313711121</v>
+        <v>215.8732253923152</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753653</v>
+        <v>271.4662640437907</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327729</v>
+        <v>293.2053550635338</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009056</v>
+        <v>245.7813799930013</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332236</v>
+        <v>177.7328761729191</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502495</v>
+        <v>68.38629016872849</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554486</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095943</v>
+        <v>68.57507023501503</v>
       </c>
       <c r="M7" t="n">
-        <v>16.44186916486555</v>
+        <v>75.59399159230904</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000253</v>
+        <v>81.7334302876159</v>
       </c>
       <c r="O7" t="n">
-        <v>1.63835632242467</v>
+        <v>54.97578017569219</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235248</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>132.4173135558165</v>
+        <v>205.0040068187907</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>442.7406161691671</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>159.0482712280115</v>
+        <v>318.5044627482999</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>471.1188709150848</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>414.838122282419</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>632.9061780259296</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.8925903961649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>128.5512458942243</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316833</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37552,19 +37554,19 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193517</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243161</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683812</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N39" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317852</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N42" t="n">
-        <v>436.0833313420887</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359219</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3106650.106257746</v>
+        <v>3102344.983260678</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.60338682606143</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663196</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>96.86671316392794</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>105.1396914264609</v>
+        <v>106.267978272003</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>17.22223187928857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>144.4132609346769</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760027</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425872</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074783</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>162.8791942899652</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>176.2896710909887</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>36.85894767157302</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>216.1480668197314</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.8784933546206</v>
+        <v>192.5104924500885</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1214,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>20.27697994470579</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>55.37364639904779</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.09929350958866</v>
+        <v>31.68046530976805</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>47.84205650381972</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>18.16423677622365</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>169.3382687475389</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.6198119699298</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>109.1623230749906</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.14939830226255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>60.78102717027877</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>182.3203821379245</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.027573600588</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.61374123523283</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4030,10 +4030,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>77.73359659137228</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>723.230240760166</v>
+        <v>224.5974673148099</v>
       </c>
       <c r="C2" t="n">
-        <v>533.8104557436815</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D2" t="n">
-        <v>533.8104557436815</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271969</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348963</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.033711606785</v>
@@ -4336,46 +4336,46 @@
         <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985576</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652786</v>
+        <v>511.862417143343</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652786</v>
+        <v>511.862417143343</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652786</v>
+        <v>511.862417143343</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652786</v>
+        <v>511.862417143343</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652786</v>
+        <v>511.862417143343</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652786</v>
+        <v>414.0172523312946</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652786</v>
+        <v>224.5974673148099</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.896529081881</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="C3" t="n">
-        <v>191.896529081881</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="D3" t="n">
-        <v>191.896529081881</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="E3" t="n">
-        <v>191.896529081881</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="F3" t="n">
-        <v>191.896529081881</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G3" t="n">
-        <v>191.896529081881</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153788</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296058</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264268</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264268</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264268</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099422</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099422</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W3" t="n">
-        <v>298.0982375934577</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>191.896529081881</v>
+        <v>263.9213864383676</v>
       </c>
       <c r="Y3" t="n">
-        <v>191.896529081881</v>
+        <v>74.50160142188287</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330557</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1727.902815837888</v>
+        <v>926.9793945007257</v>
       </c>
       <c r="C5" t="n">
-        <v>1358.940298897477</v>
+        <v>558.016877560314</v>
       </c>
       <c r="D5" t="n">
-        <v>1341.544105080013</v>
+        <v>199.7511789535635</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817691</v>
+        <v>199.7511789535635</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921615</v>
+        <v>192.80567820436</v>
       </c>
       <c r="G5" t="n">
-        <v>128.353902506253</v>
+        <v>180.4300370588556</v>
       </c>
       <c r="H5" t="n">
-        <v>128.353902506253</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746986</v>
+        <v>277.9807166746992</v>
       </c>
       <c r="L5" t="n">
         <v>521.2049416030777</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709198</v>
+        <v>823.5081935709204</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582754</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079244</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.822248332764</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="W5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.902815837888</v>
+        <v>1313.579234564847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>898.2443217423946</v>
+        <v>663.7175082377066</v>
       </c>
       <c r="C6" t="n">
-        <v>723.7912924612676</v>
+        <v>489.2644789565796</v>
       </c>
       <c r="D6" t="n">
-        <v>574.8568828000164</v>
+        <v>340.3300692953284</v>
       </c>
       <c r="E6" t="n">
-        <v>415.6194277945608</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>269.0848698214457</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G6" t="n">
-        <v>132.0028829354056</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478756</v>
+        <v>61.66788464787575</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806069</v>
+        <v>186.1577239806073</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189989</v>
+        <v>399.8722171189995</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223517</v>
+        <v>668.6238185223526</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352503</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906553</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703777</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699372</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419127</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419127</v>
+        <v>1217.763518862111</v>
       </c>
       <c r="V6" t="n">
-        <v>1062.768760419127</v>
+        <v>1217.763518862111</v>
       </c>
       <c r="W6" t="n">
-        <v>898.2443217423946</v>
+        <v>1217.763518862111</v>
       </c>
       <c r="X6" t="n">
-        <v>898.2443217423946</v>
+        <v>1039.693144022729</v>
       </c>
       <c r="Y6" t="n">
-        <v>898.2443217423946</v>
+        <v>831.9328452577747</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675776</v>
+        <v>332.5877893114866</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675776</v>
+        <v>182.4711498991509</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574718</v>
+        <v>64.24066662574734</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584121</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834798</v>
+        <v>206.9680378347985</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195377</v>
+        <v>287.8841338195383</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193473</v>
+        <v>342.3101561934737</v>
       </c>
       <c r="P7" t="n">
-        <v>369.819049585802</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.819049585802</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="R7" t="n">
-        <v>252.8894369427491</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="S7" t="n">
-        <v>252.8894369427491</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="T7" t="n">
-        <v>252.8894369427491</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="U7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="V7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675776</v>
+        <v>369.8190495858028</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>852.6996934255721</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="C8" t="n">
-        <v>852.6996934255721</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>852.6996934255721</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>852.6996934255721</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>441.7137886359646</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4807,16 +4807,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4840,16 +4840,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1629.438865465506</v>
+        <v>1974.004784025776</v>
       </c>
       <c r="X8" t="n">
-        <v>1629.438865465506</v>
+        <v>1600.539025764696</v>
       </c>
       <c r="Y8" t="n">
-        <v>1239.299533489694</v>
+        <v>1210.399693788884</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>618.1386991004406</v>
+        <v>693.0104463829871</v>
       </c>
       <c r="C9" t="n">
-        <v>618.1386991004406</v>
+        <v>518.5574171018601</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1386991004406</v>
+        <v>369.6230074406088</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>210.3855524351533</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,34 +4901,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>1539.52797744664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U9" t="n">
-        <v>1539.52797744664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="V9" t="n">
-        <v>1304.375869214897</v>
+        <v>1531.074939101743</v>
       </c>
       <c r="W9" t="n">
-        <v>1050.138512486696</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>842.287012281163</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>786.3540361205087</v>
+        <v>861.2257834030552</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.12031052680811</v>
+        <v>520.289347040599</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934482</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934482</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934482</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>321.1098614248255</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>321.1098614248255</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>321.1098614248255</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V10" t="n">
-        <v>321.1098614248255</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W10" t="n">
-        <v>321.1098614248255</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X10" t="n">
-        <v>93.12031052680811</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.12031052680811</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,28 +5056,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961522</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>465.5282911402533</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5345,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273899</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.91413360155</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228102</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.890584782709</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6183,16 +6183,16 @@
         <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3110.333886317437</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2941.39770338953</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807137</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2680.685310603266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>741.8431516380886</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7262,13 +7262,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>415.5933575433587</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>268.7034100454483</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>101.5073107603283</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7478,40 +7478,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273899</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7548,34 +7548,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611464</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7678,7 +7678,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466574</v>
@@ -7736,16 +7736,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2568112467076</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>117.1847295890521</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.90318636666117</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>142.9753202488374</v>
+        <v>69.70496293143168</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.6825818796747</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>106.4657939283491</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>103.8640922513196</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.58789941762433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>132.6809716109911</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>70.88187642684008</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="10">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312486</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
@@ -26340,22 +26340,22 @@
         <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025314</v>
+        <v>270592.3620253143</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231918</v>
+        <v>115410.0540231911</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574265</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.266830185212064e-11</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854458</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882006</v>
+        <v>62913.63765882012</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197463</v>
+        <v>27875.25362197448</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263459</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26447,10 +26447,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186739</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26459,7 +26459,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936827</v>
+        <v>76435.73471936831</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26524,46 +26524,46 @@
         <v>-208467.7191353401</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.0289602195</v>
+        <v>164779.0289602194</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.4226632867</v>
+        <v>343599.4226632874</v>
       </c>
       <c r="E6" t="n">
-        <v>-11139.15871128399</v>
+        <v>-11486.537965641</v>
       </c>
       <c r="F6" t="n">
-        <v>590304.0488629806</v>
+        <v>589956.6696086242</v>
       </c>
       <c r="G6" t="n">
-        <v>590304.0488629809</v>
+        <v>589956.669608624</v>
       </c>
       <c r="H6" t="n">
-        <v>590304.0488629811</v>
+        <v>589956.6696086245</v>
       </c>
       <c r="I6" t="n">
-        <v>590304.048862981</v>
+        <v>589956.6696086241</v>
       </c>
       <c r="J6" t="n">
-        <v>541239.1041344365</v>
+        <v>540891.7248800795</v>
       </c>
       <c r="K6" t="n">
-        <v>527390.4112041611</v>
+        <v>527043.0319498038</v>
       </c>
       <c r="L6" t="n">
-        <v>562428.7952410062</v>
+        <v>562081.4159866496</v>
       </c>
       <c r="M6" t="n">
-        <v>433157.6683113831</v>
+        <v>432810.2890570261</v>
       </c>
       <c r="N6" t="n">
-        <v>590304.0488629809</v>
+        <v>589956.669608624</v>
       </c>
       <c r="O6" t="n">
-        <v>590304.0488629811</v>
+        <v>589956.6696086241</v>
       </c>
       <c r="P6" t="n">
-        <v>590304.0488629811</v>
+        <v>589956.6696086244</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950625</v>
+        <v>758.8996292950631</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594721</v>
+        <v>431.9757039594725</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>-3.117460312884351e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821582</v>
+        <v>210.4296883821586</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262164</v>
+        <v>94.81103524262096</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931525</v>
+        <v>244.4501167931527</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666911</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931525</v>
+        <v>244.4501167931527</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666911</v>
+        <v>110.1392527666906</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931525</v>
+        <v>244.4501167931527</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666911</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>356.1304548374192</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046879</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753918</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>272.8643875145411</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897338</v>
       </c>
     </row>
     <row r="3">
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,19 +27514,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377129</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459997</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>100.6332937770165</v>
+        <v>99.50500693147451</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482799</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>234.0491352390163</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>337.4608097413944</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>163.8169951367966</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760019</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425887</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372554</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937508</v>
+        <v>43.32085084937503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074776</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>88.81578887095441</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>29.48331411248876</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>130.3878734270548</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304038</v>
+        <v>30.2419391930403</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589142</v>
+        <v>36.91115760589133</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>70.09631667158285</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27912,13 +27912,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.3624753627924</v>
+        <v>156.7304762673245</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27934,10 +27934,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>115.2302539023295</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>150.3090493782566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.1475275890392</v>
+        <v>135.5663557888598</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29748,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29802,19 +29802,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29991,19 +29991,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085676</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429369</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520274</v>
+        <v>388.0799144520277</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511782</v>
+        <v>481.4474502511786</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968106</v>
+        <v>535.703053396811</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610703</v>
+        <v>544.3712888610708</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191495</v>
+        <v>514.03437151915</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860969</v>
+        <v>438.7164434860972</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263466</v>
+        <v>329.4577782634663</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098733</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898991</v>
+        <v>69.52130774898997</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486854</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403517</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062492</v>
+        <v>56.20152915062496</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316634</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721894</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.600297965809</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468671</v>
+        <v>424.5470671468674</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374458</v>
+        <v>388.3776244374461</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872494</v>
+        <v>311.7072835872496</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947724</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378888</v>
+        <v>6.579516597378894</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734536</v>
+        <v>41.1547536673454</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635573</v>
+        <v>96.75348224635582</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399141</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528491</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627535</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054717</v>
+        <v>61.53307486054722</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830807</v>
+        <v>5.847259438830812</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0746458651765636</v>
+        <v>0.07464586517656366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>336.3457189021241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32077,13 +32077,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>585.3368606136115</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927443</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>560.1612034965808</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>254.8897444730603</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067238</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198434</v>
+        <v>77.89141170198457</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070468</v>
+        <v>167.9900634070471</v>
       </c>
       <c r="L5" t="n">
-        <v>245.681035281191</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695379</v>
+        <v>305.3568201695383</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644794</v>
+        <v>314.9582252644798</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974628</v>
+        <v>283.9361600974632</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308274</v>
+        <v>207.4834477308277</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890165</v>
+        <v>107.1520883890168</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092711</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573044</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923152</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437907</v>
+        <v>271.466264043791</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635338</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930013</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729191</v>
+        <v>177.7328761729194</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872849</v>
+        <v>68.38629016872864</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554486</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501503</v>
+        <v>68.57507023501518</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230904</v>
+        <v>75.59399159230918</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876159</v>
+        <v>81.73343028761605</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569219</v>
+        <v>54.97578017569234</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235248</v>
+        <v>27.78676100235262</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>205.0040068187907</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>442.7406161691671</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627482999</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>418.0271695745625</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>116.3353646931862</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317852</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3102344.983260678</v>
+        <v>3104105.513563463</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96.86671316392815</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>96.86671316392794</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>66.66807614108122</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>106.267978272003</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>144.4132609346769</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425872</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>109.6861527056768</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.765464414062228</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>176.2896710909887</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.85894767157302</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>146.3817527122482</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>77.8808698981491</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>192.5104924500885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>20.27697994470579</v>
+        <v>20.27697994470975</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976805</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>84.32314709342282</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>18.16423677622365</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1663,13 +1663,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>92.83802857056141</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>114.2173032139414</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="V25" t="n">
-        <v>182.4326803923963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2848,13 +2848,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>2.60701007315213</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>182.3203821379245</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695381</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148099</v>
+        <v>322.4426321268587</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>133.0228471103739</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
         <v>28.2321815491218</v>
@@ -4330,16 +4330,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
@@ -4348,34 +4348,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262249</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S2" t="n">
-        <v>511.862417143343</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="T2" t="n">
-        <v>511.862417143343</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="U2" t="n">
-        <v>511.862417143343</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="V2" t="n">
-        <v>511.862417143343</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="W2" t="n">
-        <v>511.862417143343</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312946</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148099</v>
+        <v>322.4426321268587</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.50160142188287</v>
+        <v>458.313241129427</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>458.313241129427</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4415,46 +4415,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487946</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>458.313241129427</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>458.313241129427</v>
       </c>
       <c r="X3" t="n">
-        <v>263.9213864383676</v>
+        <v>458.313241129427</v>
       </c>
       <c r="Y3" t="n">
-        <v>74.50160142188287</v>
+        <v>458.313241129427</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330559</v>
@@ -4494,46 +4494,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>926.9793945007257</v>
+        <v>816.1853008586202</v>
       </c>
       <c r="C5" t="n">
-        <v>558.016877560314</v>
+        <v>816.1853008586202</v>
       </c>
       <c r="D5" t="n">
-        <v>199.7511789535635</v>
+        <v>457.9196022518697</v>
       </c>
       <c r="E5" t="n">
-        <v>199.7511789535635</v>
+        <v>457.9196022518697</v>
       </c>
       <c r="F5" t="n">
-        <v>192.80567820436</v>
+        <v>46.93369746226208</v>
       </c>
       <c r="G5" t="n">
-        <v>180.4300370588556</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017225</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746992</v>
+        <v>277.9807166746975</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030777</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709204</v>
+        <v>823.5081935709175</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582755</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079244</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332764</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583789</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540659</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540659</v>
+        <v>1592.924472898554</v>
       </c>
       <c r="Y5" t="n">
-        <v>1313.579234564847</v>
+        <v>1202.785140922742</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377066</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565796</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953284</v>
+        <v>340.3300692953282</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898728</v>
+        <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787575</v>
+        <v>61.66788464787527</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806073</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189995</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223526</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352514</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228323</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639513</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906555</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906555</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906555</v>
+        <v>1443.085262508506</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906555</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="U6" t="n">
-        <v>1217.763518862111</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="V6" t="n">
-        <v>1217.763518862111</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="W6" t="n">
-        <v>1217.763518862111</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022729</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577747</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="C7" t="n">
-        <v>332.5877893114866</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="D7" t="n">
-        <v>182.4711498991509</v>
+        <v>182.4184125917558</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574734</v>
+        <v>64.24066662574685</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584124</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347985</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195383</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934737</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858028</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858028</v>
+        <v>332.5350520040915</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.399693788884</v>
+        <v>588.8885387922121</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>219.9260218518004</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>219.9260218518004</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>219.9260218518004</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>212.9805211025969</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>200.9898798464083</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1705.262284299218</v>
       </c>
       <c r="W8" t="n">
-        <v>1974.004784025776</v>
+        <v>1352.493629029104</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.539025764696</v>
+        <v>979.0278707680238</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.399693788884</v>
+        <v>588.8885387922121</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829871</v>
+        <v>693.0104463829912</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018601</v>
+        <v>518.5574171018642</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406088</v>
+        <v>369.6230074406129</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351533</v>
+        <v>210.3855524351574</v>
       </c>
       <c r="F9" t="n">
-        <v>63.8509944620383</v>
+        <v>63.85099446204239</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101743</v>
+        <v>1531.074939101748</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>1276.837582373546</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>1068.986082168013</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030552</v>
+        <v>861.2257834030593</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.289347040599</v>
+        <v>315.8179617212141</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>146.8817787933072</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>497.4664265514538</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,28 +5056,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732377</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2286.141593397752</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2066.540128420693</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1777.464901764891</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
         <v>484.8112968429803</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,22 +6484,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,16 +6782,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,10 +6925,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,28 +6937,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7241,16 +7241,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7551,16 +7551,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>127.2568112467076</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>88.18825743108319</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>31.20374480898985</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>147.021377568698</v>
       </c>
       <c r="V25" t="n">
-        <v>69.70496293143168</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.9159882634389</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>103.8640922513196</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="11">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312485</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
@@ -26337,25 +26337,25 @@
         <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253143</v>
+        <v>270592.3620253121</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231911</v>
+        <v>115410.0540231944</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882012</v>
+        <v>62913.63765881951</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197448</v>
+        <v>27875.25362197531</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263458</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26444,7 +26444,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26453,13 +26453,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186743</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936831</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208467.7191353401</v>
+        <v>-208467.7191353406</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.0289602194</v>
+        <v>164779.0289602216</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.4226632874</v>
+        <v>343599.4226632843</v>
       </c>
       <c r="E6" t="n">
-        <v>-11486.537965641</v>
+        <v>-11173.89663671884</v>
       </c>
       <c r="F6" t="n">
-        <v>589956.6696086242</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="G6" t="n">
-        <v>589956.669608624</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="H6" t="n">
-        <v>589956.6696086245</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="I6" t="n">
-        <v>589956.6696086241</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="J6" t="n">
-        <v>540891.7248800795</v>
+        <v>541204.3662090007</v>
       </c>
       <c r="K6" t="n">
-        <v>527043.0319498038</v>
+        <v>527355.6732787261</v>
       </c>
       <c r="L6" t="n">
-        <v>562081.4159866496</v>
+        <v>562394.0573155702</v>
       </c>
       <c r="M6" t="n">
-        <v>432810.2890570261</v>
+        <v>433122.9303859475</v>
       </c>
       <c r="N6" t="n">
-        <v>589956.669608624</v>
+        <v>590269.3109375456</v>
       </c>
       <c r="O6" t="n">
-        <v>589956.6696086241</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="P6" t="n">
-        <v>589956.6696086244</v>
+        <v>590269.3109375455</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.33289887345808e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.33289887345808e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.33289887345808e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950631</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594725</v>
+        <v>431.9757039594707</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.332898873458079e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821586</v>
+        <v>210.4296883821568</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262096</v>
+        <v>94.8110352426238</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931527</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666907</v>
+        <v>110.1392527666936</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,19 +27038,19 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931527</v>
+        <v>244.4501167931503</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666906</v>
+        <v>110.1392527666938</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931527</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666907</v>
+        <v>110.1392527666936</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>257.8163284567548</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>272.8643875145411</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377112</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>166.1325110083441</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>99.50500693147451</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098455</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441934</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482799</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>163.8169951367966</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760019</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>260.0449479727922</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246128</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937503</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074776</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>138.5975186702984</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>29.48331411248876</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.3878734270548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.05220993432101295</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.2419391930403</v>
+        <v>30.24193919304052</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589133</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>226.4459348580339</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>156.7304762673245</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>115.2302539023295</v>
+        <v>115.2302539023255</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888598</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>64.29232592478954</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.33289887345808e-14</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085678</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429371</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428057</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286709</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520277</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511786</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396811</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610708</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>514.03437151915</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860972</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634663</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098734</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898997</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920256</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868542</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63235014603089</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403518</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062496</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475939</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316636</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721896</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658093</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468674</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374461</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872496</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547502</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632162</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947726</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378894</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757165</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236999</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377987</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673454</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635582</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260804</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162535</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399142</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528492</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275351</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515002</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235545</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054722</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391205</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830812</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656366</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198457</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070471</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811913</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695383</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644798</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974632</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308277</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890168</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092722</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573046</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923154</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.466264043791</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635341</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930016</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729194</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872864</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554498</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501518</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230918</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761605</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569234</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235262</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
